--- a/projeto_integrador/Previsoes/pred.xlsx
+++ b/projeto_integrador/Previsoes/pred.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Mês</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Vendas</t>
   </si>
   <si>
+    <t>Janeiro</t>
+  </si>
+  <si>
     <t>Fevereiro</t>
   </si>
   <si>
@@ -29,15 +32,6 @@
   </si>
   <si>
     <t>Abril</t>
-  </si>
-  <si>
-    <t>Maio</t>
-  </si>
-  <si>
-    <t>Junho</t>
-  </si>
-  <si>
-    <t>Julho</t>
   </si>
 </sst>
 </file>
@@ -395,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2111</v>
+        <v>7738</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -422,7 +416,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4520</v>
+        <v>8535</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -430,7 +424,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4522</v>
+        <v>11668</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -438,23 +432,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4404</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>4467</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>4156</v>
+        <v>10009</v>
       </c>
     </row>
   </sheetData>

--- a/projeto_integrador/Previsoes/pred.xlsx
+++ b/projeto_integrador/Previsoes/pred.xlsx
@@ -14,14 +14,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Mês</t>
   </si>
   <si>
+    <t>Min</t>
+  </si>
+  <si>
     <t>Vendas</t>
   </si>
   <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Dezembro</t>
+  </si>
+  <si>
     <t>Janeiro</t>
   </si>
   <si>
@@ -29,9 +38,6 @@
   </si>
   <si>
     <t>Março</t>
-  </si>
-  <si>
-    <t>Abril</t>
   </si>
 </sst>
 </file>
@@ -389,50 +395,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>7738</v>
+        <v>5631</v>
+      </c>
+      <c r="C2">
+        <v>8002</v>
+      </c>
+      <c r="D2">
+        <v>10374</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>8535</v>
+        <v>4193</v>
+      </c>
+      <c r="C3">
+        <v>5959</v>
+      </c>
+      <c r="D3">
+        <v>7725</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>11668</v>
+        <v>4497</v>
+      </c>
+      <c r="C4">
+        <v>6391</v>
+      </c>
+      <c r="D4">
+        <v>8285</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>10009</v>
+        <v>5901</v>
+      </c>
+      <c r="C5">
+        <v>8387</v>
+      </c>
+      <c r="D5">
+        <v>10872</v>
       </c>
     </row>
   </sheetData>

--- a/projeto_integrador/Previsoes/pred.xlsx
+++ b/projeto_integrador/Previsoes/pred.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Mês</t>
   </si>
@@ -28,16 +28,7 @@
     <t>Max</t>
   </si>
   <si>
-    <t>Dezembro</t>
-  </si>
-  <si>
     <t>Janeiro</t>
-  </si>
-  <si>
-    <t>Fevereiro</t>
-  </si>
-  <si>
-    <t>Março</t>
   </si>
 </sst>
 </file>
@@ -395,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,55 +411,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>5631</v>
+        <v>3704</v>
       </c>
       <c r="C2">
-        <v>8002</v>
+        <v>5264</v>
       </c>
       <c r="D2">
-        <v>10374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>4193</v>
-      </c>
-      <c r="C3">
-        <v>5959</v>
-      </c>
-      <c r="D3">
-        <v>7725</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>4497</v>
-      </c>
-      <c r="C4">
-        <v>6391</v>
-      </c>
-      <c r="D4">
-        <v>8285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>5901</v>
-      </c>
-      <c r="C5">
-        <v>8387</v>
-      </c>
-      <c r="D5">
-        <v>10872</v>
+        <v>6824</v>
       </c>
     </row>
   </sheetData>

--- a/projeto_integrador/Previsoes/pred.xlsx
+++ b/projeto_integrador/Previsoes/pred.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Mês</t>
+    <t>Data</t>
   </si>
   <si>
     <t>Min</t>
@@ -28,7 +28,7 @@
     <t>Max</t>
   </si>
   <si>
-    <t>Janeiro</t>
+    <t>2022-12-01</t>
   </si>
 </sst>
 </file>
@@ -411,13 +411,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>3704</v>
+        <v>13451</v>
       </c>
       <c r="C2">
-        <v>5264</v>
+        <v>16319</v>
       </c>
       <c r="D2">
-        <v>6824</v>
+        <v>19159</v>
       </c>
     </row>
   </sheetData>
